--- a/RyR_Generator/old_versions/3_Results/Target.xlsx
+++ b/RyR_Generator/old_versions/3_Results/Target.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\RyR_Generator\old_versions\3_Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9B087-C41A-438F-8651-120FE5E9FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -357,18 +408,2492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A4:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB1_X</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3255</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3262</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3252</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.3243</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.3273</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB1_Y</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB2_X</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.3317</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.3314</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB2_Y</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB3_X</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3455</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.3434</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB3_Y</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3706</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3706</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3705</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB4_X</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3251</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3256</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3236</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3247</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.3256</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3222</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB4_Y</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3521</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3522</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3519</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.3522</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB5_X</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB5_Y</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB6_X</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3378</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3377</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3371</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.3375</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.3347</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.3379</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.3374</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB6_Y</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.3656</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB7_X</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3239</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3247</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3276</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3229</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3267</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3302</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3239</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3274</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3243</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3247</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3233</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3239</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3239</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB7_Y</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3549</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3561</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3543</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3538</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3555</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.3557</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3547</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3528</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.3534</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB8_X</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3302</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3302</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.3289</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.3289</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.3297</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.3298</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.3288</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB8_Y</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3591</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB9_X</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3438</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3425</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3452</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.3452</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.3433</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3447</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3447</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3426</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.3422</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3422</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3452</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3428</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3447</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3416</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3424</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3439</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.3419</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.3416</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.3419</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.3436</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.3435</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB9_Y</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3692</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.3686</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3703</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3703</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.3692</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3699</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3698</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3687</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3696</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3681</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3682</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.3693</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.3703</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.3685</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.3698</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.3682</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.3679</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.3687</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.3677</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.3677</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.3685</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.3682</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB10_X</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB10_Y</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3593</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.3593</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB11_X</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3264</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.3357</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.3406</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.3411</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB11_Y</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3573</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3609</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3636</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB12_X</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3522</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3529</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.3518</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.3523</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.3525</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.3516</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.3517</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guia_Luz_Blanco_FB12_Y</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.3733</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.3738</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.3735</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.3733</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.3728</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.3734</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.3731</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.3728</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.3731</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.3732</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.3731</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/RyR_Generator/old_versions/3_Results/Target.xlsx
+++ b/RyR_Generator/old_versions/3_Results/Target.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,94 +428,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3241</v>
+        <v>0.3317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3249</v>
+        <v>0.3315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3255</v>
+        <v>0.3316</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3232</v>
+        <v>0.3314</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3232</v>
+        <v>0.3318</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3249</v>
+        <v>0.3317</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3232</v>
+        <v>0.3316</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3262</v>
+        <v>0.3318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3232</v>
+        <v>0.3313</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3252</v>
+        <v>0.3317</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3232</v>
+        <v>0.3316</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3232</v>
+        <v>0.3314</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3232</v>
+        <v>0.3314</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3265</v>
+        <v>0.3314</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3252</v>
+        <v>0.3317</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3252</v>
+        <v>0.3317</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3232</v>
+        <v>0.3314</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3243</v>
+        <v>0.3319</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3232</v>
+        <v>0.3317</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3238</v>
+        <v>0.3317</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3232</v>
+        <v>0.3318</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3273</v>
+        <v>0.3318</v>
       </c>
       <c r="AF4" t="n">
         <v>0.1</v>
@@ -531,94 +531,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.354</v>
+        <v>0.3547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3539</v>
+        <v>0.3545</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3539</v>
+        <v>0.3546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3542</v>
+        <v>0.3545</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3539</v>
+        <v>0.3546</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3537</v>
+        <v>0.3547</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3542</v>
+        <v>0.3544</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3539</v>
+        <v>0.3546</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3542</v>
+        <v>0.3545</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3542</v>
+        <v>0.3545</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3537</v>
+        <v>0.3545</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3539</v>
+        <v>0.3546</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3539</v>
+        <v>0.3546</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3542</v>
+        <v>0.3545</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.354</v>
+        <v>0.3548</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3542</v>
+        <v>0.3546</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3541</v>
+        <v>0.3546</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3542</v>
+        <v>0.3547</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3535</v>
+        <v>0.3547</v>
       </c>
       <c r="AF5" t="n">
         <v>0.1</v>
@@ -634,94 +634,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3325</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3298</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3319</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3317</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3321</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3314</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3319</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3326</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3334</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0.1</v>
@@ -737,94 +737,94 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3573</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3575</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3573</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3573</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3573</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3574</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3573</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3573</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3572</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0.1</v>
@@ -840,49 +840,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3459</v>
+        <v>0.3426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3459</v>
+        <v>0.3425</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3459</v>
+        <v>0.3426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3459</v>
+        <v>0.3427</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3459</v>
+        <v>0.3426</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3455</v>
+        <v>0.3426</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3459</v>
+        <v>0.3425</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3441</v>
+        <v>0.3424</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3459</v>
+        <v>0.3425</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="P8" t="n">
-        <v>0.344</v>
+        <v>0.3424</v>
       </c>
       <c r="Q8" t="n">
         <v>0.3425</v>
@@ -891,43 +891,43 @@
         <v>0.3425</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3459</v>
+        <v>0.3425</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3459</v>
+        <v>0.3425</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3425</v>
+        <v>0.3423</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3456</v>
+        <v>0.3424</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3459</v>
+        <v>0.3423</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3434</v>
+        <v>0.3424</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3459</v>
+        <v>0.3423</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3459</v>
+        <v>0.3423</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3459</v>
+        <v>0.3423</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3425</v>
+        <v>0.3424</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3459</v>
+        <v>0.3424</v>
       </c>
       <c r="AF8" t="n">
         <v>0.1</v>
@@ -943,94 +943,94 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3707</v>
+        <v>0.3629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3707</v>
+        <v>0.3629</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3707</v>
+        <v>0.3629</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3707</v>
+        <v>0.3629</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3706</v>
+        <v>0.3628</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3706</v>
+        <v>0.3627</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3705</v>
+        <v>0.3627</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3705</v>
+        <v>0.3628</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3707</v>
+        <v>0.3628</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3705</v>
+        <v>0.3627</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3707</v>
+        <v>0.3626</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3705</v>
+        <v>0.3627</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3707</v>
+        <v>0.3626</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3705</v>
+        <v>0.3627</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3707</v>
+        <v>0.3627</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -1046,94 +1046,94 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3245</v>
+        <v>0.3329</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3245</v>
+        <v>0.3328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3248</v>
+        <v>0.3328</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3251</v>
+        <v>0.3327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3256</v>
+        <v>0.3327</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3245</v>
+        <v>0.3325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3245</v>
+        <v>0.3326</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3236</v>
+        <v>0.3325</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3245</v>
+        <v>0.3326</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3257</v>
+        <v>0.3325</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3229</v>
+        <v>0.3325</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3245</v>
+        <v>0.3327</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3245</v>
+        <v>0.3324</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3249</v>
+        <v>0.3324</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3245</v>
+        <v>0.3321</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3257</v>
+        <v>0.3325</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3247</v>
+        <v>0.3326</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3229</v>
+        <v>0.3326</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3245</v>
+        <v>0.3324</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3245</v>
+        <v>0.3325</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3256</v>
+        <v>0.3324</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3245</v>
+        <v>0.3324</v>
       </c>
       <c r="X10" t="n">
-        <v>0.326</v>
+        <v>0.3322</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.326</v>
+        <v>0.3324</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3245</v>
+        <v>0.3326</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3245</v>
+        <v>0.3321</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.326</v>
+        <v>0.3323</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.326</v>
+        <v>0.3321</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.326</v>
+        <v>0.3321</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3222</v>
+        <v>0.3321</v>
       </c>
       <c r="AF10" t="n">
         <v>0.1</v>
@@ -1149,94 +1149,94 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.352</v>
+        <v>0.3564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.352</v>
+        <v>0.3563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3518</v>
+        <v>0.3563</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3518</v>
+        <v>0.3562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3518</v>
+        <v>0.3562</v>
       </c>
       <c r="G11" t="n">
-        <v>0.352</v>
+        <v>0.356</v>
       </c>
       <c r="H11" t="n">
-        <v>0.352</v>
+        <v>0.3561</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3521</v>
+        <v>0.3559</v>
       </c>
       <c r="J11" t="n">
-        <v>0.352</v>
+        <v>0.3561</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3525</v>
+        <v>0.3559</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3522</v>
+        <v>0.3559</v>
       </c>
       <c r="M11" t="n">
-        <v>0.352</v>
+        <v>0.3562</v>
       </c>
       <c r="N11" t="n">
-        <v>0.352</v>
+        <v>0.3558</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3517</v>
+        <v>0.3559</v>
       </c>
       <c r="P11" t="n">
-        <v>0.352</v>
+        <v>0.3556</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3525</v>
+        <v>0.356</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3519</v>
+        <v>0.3561</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3522</v>
+        <v>0.3561</v>
       </c>
       <c r="T11" t="n">
-        <v>0.352</v>
+        <v>0.3559</v>
       </c>
       <c r="U11" t="n">
-        <v>0.352</v>
+        <v>0.3561</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3518</v>
+        <v>0.3559</v>
       </c>
       <c r="W11" t="n">
-        <v>0.352</v>
+        <v>0.3558</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3516</v>
+        <v>0.3556</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3516</v>
+        <v>0.3558</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.352</v>
+        <v>0.3561</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.352</v>
+        <v>0.3555</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.3516</v>
+        <v>0.3557</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3516</v>
+        <v>0.3555</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3516</v>
+        <v>0.3555</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3516</v>
+        <v>0.3555</v>
       </c>
       <c r="AF11" t="n">
         <v>0.1</v>
@@ -1252,94 +1252,94 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3324</v>
+        <v>0.3263</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3324</v>
+        <v>0.3262</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3324</v>
+        <v>0.3261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3298</v>
+        <v>0.326</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3304</v>
+        <v>0.3259</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3324</v>
+        <v>0.3262</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3304</v>
+        <v>0.326</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3303</v>
+        <v>0.326</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3324</v>
+        <v>0.3263</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3324</v>
+        <v>0.326</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3324</v>
+        <v>0.3262</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.3324</v>
+        <v>0.3259</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3324</v>
+        <v>0.3264</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3324</v>
+        <v>0.3263</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3351</v>
+        <v>0.3263</v>
       </c>
       <c r="AF12" t="n">
         <v>0.1</v>
@@ -1355,94 +1355,94 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3586</v>
+        <v>0.3523</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3586</v>
+        <v>0.3521</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3586</v>
+        <v>0.3522</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3586</v>
+        <v>0.3521</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3586</v>
+        <v>0.3521</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3588</v>
+        <v>0.352</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3588</v>
+        <v>0.352</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3586</v>
+        <v>0.3522</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3591</v>
+        <v>0.352</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3587</v>
+        <v>0.352</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3586</v>
+        <v>0.3519</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3586</v>
+        <v>0.3523</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3586</v>
+        <v>0.3522</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3586</v>
+        <v>0.352</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3586</v>
+        <v>0.3523</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3586</v>
+        <v>0.3522</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3584</v>
+        <v>0.3522</v>
       </c>
       <c r="AF13" t="n">
         <v>0.1</v>
@@ -1458,94 +1458,94 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3365</v>
+        <v>0.335</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3378</v>
+        <v>0.3352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3386</v>
+        <v>0.3352</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3386</v>
+        <v>0.3351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3386</v>
+        <v>0.3352</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3386</v>
+        <v>0.335</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3386</v>
+        <v>0.3351</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3365</v>
+        <v>0.3351</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3377</v>
+        <v>0.335</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3345</v>
+        <v>0.3351</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3345</v>
+        <v>0.3351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3371</v>
+        <v>0.3352</v>
       </c>
       <c r="N14" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.3352</v>
       </c>
-      <c r="O14" t="n">
-        <v>0.3345</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.3345</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.3345</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.3345</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.3345</v>
-      </c>
       <c r="T14" t="n">
-        <v>0.3345</v>
+        <v>0.335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3374</v>
+        <v>0.3351</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3386</v>
+        <v>0.335</v>
       </c>
       <c r="W14" t="n">
         <v>0.335</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3381</v>
+        <v>0.335</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3375</v>
+        <v>0.3351</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3347</v>
+        <v>0.3352</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3345</v>
+        <v>0.335</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3379</v>
+        <v>0.3351</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3363</v>
+        <v>0.335</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3374</v>
+        <v>0.335</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3386</v>
+        <v>0.335</v>
       </c>
       <c r="AF14" t="n">
         <v>0.1</v>
@@ -1561,94 +1561,94 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3656</v>
+        <v>0.3562</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3657</v>
+        <v>0.3563</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3657</v>
+        <v>0.3563</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3657</v>
+        <v>0.3565</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3657</v>
+        <v>0.3564</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3657</v>
+        <v>0.3566</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3657</v>
+        <v>0.3565</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3656</v>
+        <v>0.3567</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3657</v>
+        <v>0.3565</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3656</v>
+        <v>0.3566</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3656</v>
+        <v>0.3566</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3657</v>
+        <v>0.3563</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3656</v>
+        <v>0.3566</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3656</v>
+        <v>0.3566</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3656</v>
+        <v>0.3567</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3656</v>
+        <v>0.3565</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3656</v>
+        <v>0.3563</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3656</v>
+        <v>0.3564</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3656</v>
+        <v>0.3566</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3656</v>
+        <v>0.3563</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3657</v>
+        <v>0.3566</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3656</v>
+        <v>0.3566</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3657</v>
+        <v>0.3567</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3657</v>
+        <v>0.3566</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.3656</v>
+        <v>0.3564</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3656</v>
+        <v>0.3567</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.3657</v>
+        <v>0.3566</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3657</v>
+        <v>0.3567</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.3656</v>
+        <v>0.3567</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3657</v>
+        <v>0.3567</v>
       </c>
       <c r="AF15" t="n">
         <v>0.1</v>
@@ -1664,94 +1664,94 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.324</v>
+        <v>0.3317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3239</v>
+        <v>0.3316</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3234</v>
+        <v>0.3315</v>
       </c>
       <c r="E16" t="n">
-        <v>0.324</v>
+        <v>0.3315</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3247</v>
+        <v>0.3315</v>
       </c>
       <c r="G16" t="n">
-        <v>0.324</v>
+        <v>0.3315</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3257</v>
+        <v>0.3315</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3276</v>
+        <v>0.3315</v>
       </c>
       <c r="J16" t="n">
-        <v>0.324</v>
+        <v>0.3315</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3254</v>
+        <v>0.3314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.324</v>
+        <v>0.3315</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3229</v>
+        <v>0.3314</v>
       </c>
       <c r="N16" t="n">
-        <v>0.324</v>
+        <v>0.3315</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3267</v>
+        <v>0.3315</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3302</v>
+        <v>0.3315</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.324</v>
+        <v>0.3314</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3249</v>
+        <v>0.3313</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3239</v>
+        <v>0.3313</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3274</v>
+        <v>0.3314</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3243</v>
+        <v>0.3313</v>
       </c>
       <c r="V16" t="n">
-        <v>0.324</v>
+        <v>0.3314</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3247</v>
+        <v>0.3315</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3232</v>
+        <v>0.3315</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.324</v>
+        <v>0.3314</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3233</v>
+        <v>0.3313</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.324</v>
+        <v>0.3315</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3239</v>
+        <v>0.3315</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3285</v>
+        <v>0.3315</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3239</v>
+        <v>0.3315</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3241</v>
+        <v>0.3315</v>
       </c>
       <c r="AF16" t="n">
         <v>0.1</v>
@@ -1767,94 +1767,94 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3529</v>
+        <v>0.3551</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3528</v>
+        <v>0.355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3529</v>
+        <v>0.3549</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3529</v>
+        <v>0.3549</v>
       </c>
       <c r="F17" t="n">
-        <v>0.354</v>
+        <v>0.3549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3529</v>
+        <v>0.3548</v>
       </c>
       <c r="H17" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.3549</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.3561</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.3529</v>
+        <v>0.3548</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3543</v>
+        <v>0.3548</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3529</v>
+        <v>0.3548</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3538</v>
+        <v>0.3548</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3529</v>
+        <v>0.3548</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3555</v>
+        <v>0.3548</v>
       </c>
       <c r="P17" t="n">
-        <v>0.356</v>
+        <v>0.3549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3529</v>
+        <v>0.3547</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3539</v>
+        <v>0.3547</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3529</v>
+        <v>0.3547</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3557</v>
+        <v>0.3548</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3535</v>
+        <v>0.3547</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3529</v>
+        <v>0.3548</v>
       </c>
       <c r="W17" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.3549</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.3547</v>
       </c>
-      <c r="X17" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.3529</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.353</v>
-      </c>
       <c r="AA17" t="n">
-        <v>0.3529</v>
+        <v>0.355</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3528</v>
+        <v>0.3548</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3579</v>
+        <v>0.355</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3529</v>
+        <v>0.3549</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3534</v>
+        <v>0.3549</v>
       </c>
       <c r="AF17" t="n">
         <v>0.1</v>
@@ -1870,94 +1870,94 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3302</v>
+        <v>0.3261</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3295</v>
+        <v>0.3258</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3311</v>
+        <v>0.3256</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3307</v>
+        <v>0.3255</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3307</v>
+        <v>0.3256</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3302</v>
+        <v>0.3255</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3309</v>
+        <v>0.3255</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3321</v>
+        <v>0.3255</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3298</v>
+        <v>0.3255</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3304</v>
+        <v>0.3254</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3301</v>
+        <v>0.3254</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3299</v>
+        <v>0.3255</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3307</v>
+        <v>0.3254</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3304</v>
+        <v>0.3254</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3307</v>
+        <v>0.3253</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3307</v>
+        <v>0.3254</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3307</v>
+        <v>0.3255</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3287</v>
+        <v>0.3255</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3312</v>
+        <v>0.3253</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3289</v>
+        <v>0.3256</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3298</v>
+        <v>0.3254</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3305</v>
+        <v>0.3254</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3299</v>
+        <v>0.3253</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3289</v>
+        <v>0.3254</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3298</v>
+        <v>0.3255</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3292</v>
+        <v>0.3252</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.3297</v>
+        <v>0.3253</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3311</v>
+        <v>0.3253</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3298</v>
+        <v>0.3252</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3288</v>
+        <v>0.3253</v>
       </c>
       <c r="AF18" t="n">
         <v>0.1</v>
@@ -1973,94 +1973,94 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3589</v>
+        <v>0.3519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3583</v>
+        <v>0.3517</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3591</v>
+        <v>0.3516</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3594</v>
+        <v>0.3515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3588</v>
+        <v>0.3516</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3592</v>
+        <v>0.3515</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3594</v>
+        <v>0.3515</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3595</v>
+        <v>0.3514</v>
       </c>
       <c r="J19" t="n">
-        <v>0.359</v>
+        <v>0.3515</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3587</v>
+        <v>0.3514</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3589</v>
+        <v>0.3514</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3585</v>
+        <v>0.3515</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3594</v>
+        <v>0.3514</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3587</v>
+        <v>0.3514</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3591</v>
+        <v>0.3513</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3594</v>
+        <v>0.3514</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3594</v>
+        <v>0.3515</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3581</v>
+        <v>0.3515</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3591</v>
+        <v>0.3513</v>
       </c>
       <c r="U19" t="n">
-        <v>0.358</v>
+        <v>0.3515</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3584</v>
+        <v>0.3514</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3588</v>
+        <v>0.3514</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3585</v>
+        <v>0.3513</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3581</v>
+        <v>0.3513</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.3584</v>
+        <v>0.3515</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3583</v>
+        <v>0.3512</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3584</v>
+        <v>0.3513</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3594</v>
+        <v>0.3512</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3584</v>
+        <v>0.3512</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3579</v>
+        <v>0.3512</v>
       </c>
       <c r="AF19" t="n">
         <v>0.1</v>
@@ -2076,94 +2076,94 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3441</v>
+        <v>0.3272</v>
       </c>
       <c r="C20" t="n">
-        <v>0.345</v>
+        <v>0.3272</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3438</v>
+        <v>0.3272</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3438</v>
+        <v>0.3273</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3425</v>
+        <v>0.3272</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3452</v>
+        <v>0.3275</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3452</v>
+        <v>0.3274</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3433</v>
+        <v>0.3274</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3447</v>
+        <v>0.3273</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3447</v>
+        <v>0.3273</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3426</v>
+        <v>0.3273</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3436</v>
+        <v>0.3272</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3422</v>
+        <v>0.3273</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3422</v>
+        <v>0.3273</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3445</v>
+        <v>0.3272</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3445</v>
+        <v>0.3272</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3441</v>
+        <v>0.3272</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3452</v>
+        <v>0.3272</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3428</v>
+        <v>0.3272</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3447</v>
+        <v>0.3272</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3416</v>
+        <v>0.3272</v>
       </c>
       <c r="W20" t="n">
-        <v>0.343</v>
+        <v>0.3272</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3424</v>
+        <v>0.3271</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3439</v>
+        <v>0.3272</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3419</v>
+        <v>0.3272</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3416</v>
+        <v>0.3271</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.3419</v>
+        <v>0.3271</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3436</v>
+        <v>0.3271</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3435</v>
+        <v>0.3272</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.343</v>
+        <v>0.3272</v>
       </c>
       <c r="AF20" t="n">
         <v>0.1</v>
@@ -2179,94 +2179,94 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3688</v>
+        <v>0.3528</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3692</v>
+        <v>0.353</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3686</v>
+        <v>0.353</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3686</v>
+        <v>0.353</v>
       </c>
       <c r="F21" t="n">
-        <v>0.368</v>
+        <v>0.353</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3703</v>
+        <v>0.3531</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3703</v>
+        <v>0.3531</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3692</v>
+        <v>0.353</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3699</v>
+        <v>0.3531</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3698</v>
+        <v>0.3529</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3687</v>
+        <v>0.3529</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3696</v>
+        <v>0.353</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3681</v>
+        <v>0.3528</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3682</v>
+        <v>0.3529</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3693</v>
+        <v>0.3527</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3695</v>
+        <v>0.3529</v>
       </c>
       <c r="R21" t="n">
-        <v>0.369</v>
+        <v>0.353</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3703</v>
+        <v>0.353</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3685</v>
+        <v>0.3528</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3698</v>
+        <v>0.3529</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3675</v>
+        <v>0.3528</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3682</v>
+        <v>0.3528</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3679</v>
+        <v>0.3526</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3687</v>
+        <v>0.3528</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3677</v>
+        <v>0.353</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.3675</v>
+        <v>0.3526</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.3677</v>
+        <v>0.3527</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3684</v>
+        <v>0.3526</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.3685</v>
+        <v>0.3527</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.3682</v>
+        <v>0.3527</v>
       </c>
       <c r="AF21" t="n">
         <v>0.1</v>
@@ -2282,94 +2282,94 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3315</v>
+        <v>0.3355</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3316</v>
+        <v>0.3356</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3333</v>
+        <v>0.3356</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3293</v>
+        <v>0.3354</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3292</v>
+        <v>0.3354</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3322</v>
+        <v>0.3354</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3305</v>
+        <v>0.3353</v>
       </c>
       <c r="I22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="J22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="K22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3328</v>
+        <v>0.3353</v>
       </c>
       <c r="M22" t="n">
-        <v>0.333</v>
+        <v>0.3354</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3333</v>
+        <v>0.3353</v>
       </c>
       <c r="O22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3301</v>
+        <v>0.3353</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="R22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="S22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="T22" t="n">
-        <v>0.333</v>
+        <v>0.3352</v>
       </c>
       <c r="U22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="V22" t="n">
-        <v>0.333</v>
+        <v>0.3352</v>
       </c>
       <c r="W22" t="n">
-        <v>0.333</v>
+        <v>0.3352</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3326</v>
+        <v>0.3353</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.333</v>
+        <v>0.3352</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.333</v>
+        <v>0.3352</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.333</v>
+        <v>0.3353</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.3329</v>
+        <v>0.3354</v>
       </c>
       <c r="AF22" t="n">
         <v>0.1</v>
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3586</v>
+        <v>0.3572</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3587</v>
+        <v>0.3572</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3597</v>
+        <v>0.3572</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3572</v>
+        <v>0.357</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3573</v>
+        <v>0.3571</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3594</v>
+        <v>0.3569</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3579</v>
+        <v>0.3569</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3593</v>
+        <v>0.3569</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3598</v>
+        <v>0.357</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3597</v>
+        <v>0.3568</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3572</v>
+        <v>0.3568</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3598</v>
+        <v>0.3568</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3598</v>
+        <v>0.357</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3598</v>
+        <v>0.3568</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3598</v>
+        <v>0.3568</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3593</v>
+        <v>0.3567</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.3598</v>
+        <v>0.3568</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.3598</v>
+        <v>0.3569</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3598</v>
+        <v>0.3567</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.3598</v>
+        <v>0.3568</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.3598</v>
+        <v>0.3567</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.3598</v>
+        <v>0.3568</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.3596</v>
+        <v>0.3568</v>
       </c>
       <c r="AF23" t="n">
         <v>0.1</v>
@@ -2488,94 +2488,94 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0.3317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3317</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.3316</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.3285</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3411</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.3285</v>
-      </c>
       <c r="F24" t="n">
-        <v>0.3264</v>
+        <v>0.3315</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3311</v>
+        <v>0.3317</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3411</v>
+        <v>0.3315</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3411</v>
+        <v>0.3317</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3411</v>
+        <v>0.3314</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3411</v>
+        <v>0.3317</v>
       </c>
       <c r="L24" t="n">
-        <v>0.328</v>
+        <v>0.3315</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3411</v>
+        <v>0.3314</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3411</v>
+        <v>0.3317</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3411</v>
+        <v>0.3316</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3357</v>
+        <v>0.3317</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3411</v>
+        <v>0.3314</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3411</v>
+        <v>0.3314</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3411</v>
+        <v>0.3314</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3411</v>
+        <v>0.3316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3411</v>
+        <v>0.3314</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3411</v>
+        <v>0.3316</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3411</v>
+        <v>0.3316</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3406</v>
+        <v>0.3317</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3411</v>
+        <v>0.3316</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.3411</v>
+        <v>0.3313</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3411</v>
+        <v>0.3316</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.3411</v>
+        <v>0.3315</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.3411</v>
+        <v>0.3317</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.3411</v>
+        <v>0.3317</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.3411</v>
+        <v>0.3317</v>
       </c>
       <c r="AF24" t="n">
         <v>0.1</v>
@@ -2591,94 +2591,94 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3588</v>
+        <v>0.3523</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3573</v>
+        <v>0.3522</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3636</v>
+        <v>0.3521</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3573</v>
+        <v>0.3521</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3562</v>
+        <v>0.3521</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3586</v>
+        <v>0.3521</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3636</v>
+        <v>0.3521</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3636</v>
+        <v>0.3521</v>
       </c>
       <c r="L25" t="n">
-        <v>0.357</v>
+        <v>0.3519</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3609</v>
+        <v>0.3519</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3636</v>
+        <v>0.352</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.3636</v>
+        <v>0.3518</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.3636</v>
+        <v>0.3519</v>
       </c>
       <c r="AF25" t="n">
         <v>0.1</v>
@@ -2694,94 +2694,94 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3499</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3499</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3522</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3502</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3529</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3524</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3525</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3508</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3508</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.3518</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3507</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3508</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.3518</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3505</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3523</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3508</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3513</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3525</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.3524</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.3516</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.3517</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
         <v>0.1</v>
@@ -2797,94 +2797,94 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3733</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3738</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3735</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3725</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3725</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3733</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3724</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3728</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3734</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.3727</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3731</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.3728</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3725</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3725</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.3731</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.3732</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.3731</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.3727</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.3725</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.3726</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
         <v>0.1</v>
